--- a/Schedules/CS_course_schedule.xlsx
+++ b/Schedules/CS_course_schedule.xlsx
@@ -487,14 +487,14 @@
       <c r="E2" t="inlineStr">
         <is>
           <t>1
-CS-219-01805-MacKay
-CS-219-01805-MacKay</t>
+CS-219-01805-MacKayIDE-107A
+CS-219-01805-MacKayIDE-107B</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
           <t>13
-AV-300-13804-Wyman</t>
+AV-300-13804-WymanEAX-010</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -515,47 +515,47 @@
       <c r="C3" t="inlineStr">
         <is>
           <t>3
-AV-410-03809-Balch
-CM-200-03811-Mohamed Ali
-CS-413-03810-Kim</t>
+AV-410-03809-BalchEAX-011
+CM-200-03811-Mohamed AliIDE-318
+CS-413-03810-KimIDE-113A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
           <t>4
-AV-306-04805-Breuder
-CM-375-04808-Regnery
-IT-212-04009-Gilmartin
-CS-312-04815-Bancroft
-CS-219-04814-nan
-CS-219-04814-nan
-CS-217-04809-nan</t>
+AV-306-04805-BreuderEAX-009
+CM-375-04808-RegneryEAX-017
+IT-212-04009-GilmartinIDE-128A
+CS-312-04815-BancroftIDE-317
+CS-219-04814-nanIDE-118A
+CS-219-04814-nanIDE-118B
+CS-217-04809-nannan-nan</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>3
-AV-410-03809-Balch
-CM-200-03811-Mohamed Ali
-CS-413-03810-Kim</t>
+AV-410-03809-BalchEAX-011
+CM-200-03811-Mohamed AliIDE-318
+CS-413-03810-KimIDE-113A</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
           <t>14
-AT-410-14801-Wyman</t>
+AT-410-14801-WymanEAX-012</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
           <t>4.0
-AV-306-04805-Breuder
-CM-375-04808-Regnery
-IT-212-04009-Gilmartin
-CS-312-04815-Bancroft
-CS-219-04814-nan
-CS-219-04814-nan
-CS-217-04809-nan</t>
+AV-306-04805-BreuderEAX-009
+CM-375-04808-RegneryEAX-017
+IT-212-04009-GilmartinIDE-128A
+CS-312-04815-BancroftIDE-317
+CS-219-04814-nanIDE-118A
+CS-219-04814-nanIDE-118B
+CS-217-04809-nannan-nan</t>
         </is>
       </c>
     </row>
@@ -571,62 +571,62 @@
       <c r="C4" t="inlineStr">
         <is>
           <t>5
-AM-201-05816-Balch
-CM-320-05815-nan
-CM-320-05815-nan
-IT-140-05007-Banae
-IT-423-05008-Fireheart
-CS-217-05812-nan
-CS-328-05807-nan
-CS-328-05807-nan</t>
+AM-201-05816-BalchEAX-011
+CM-320-05815-nanEAX-015
+CM-320-05815-nanEAX-016
+IT-140-05007-BanaeIDE-128A
+IT-423-05008-FireheartIDE-204A
+CS-217-05812-nanIDE-104A
+CS-328-05807-nanIDE-118A
+CS-328-05807-nanIDE-118B</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>13
-AV-300-13804-Wyman
-CSM-225-13810-Trottier
-CSM-199-13805-nan
-CSM-199-13805-nan
-CS-113-13850-Kim
-CS-113-13851-nan
-CS-113-13852-nan</t>
+AV-300-13804-WymanEAX-010
+CSM-225-13810-TrottierEAX-017
+CSM-199-13805-nanEAX-015
+CSM-199-13805-nanEAX-016
+CS-113-13850-KimIDE-104A
+CS-113-13851-nannan-nan
+CS-113-13852-nanIDE-204A</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>6
-CS-113-06853-Kim
-CS-110-06814-Bancroft
-IT-304-06008-Hogan
-CS-114-06856-nan
-CS-217-06800-nan
-CS-113-06855-nan</t>
+CS-113-06853-KimIDE-113A
+CS-110-06814-BancroftIDE-317
+IT-304-06008-HoganIDE-209
+CS-114-06856-nanIDE-104A
+CS-217-06800-nanIDE-217A
+CS-113-06855-nannan-nan</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
           <t>5
-AM-201-05816-Balch
-AT-410L-05804-Adelizzi
-AT-410L-05804-Adelizzi
-CM-320-05815-nan
-CM-320-05815-nan
-IT-140-05007-Banae
-IT-423-05008-Fireheart
-CS-217-05812-nan
-CS-328-05807-nan
-CS-328-05807-nan</t>
+AM-201-05816-BalchEAX-011
+AT-410L-05804-AdelizziEAX-022
+AT-410L-05804-AdelizziEAX-023
+CM-320-05815-nanEAX-015
+CM-320-05815-nanEAX-016
+IT-140-05007-BanaeIDE-128A
+IT-423-05008-FireheartIDE-204A
+CS-217-05812-nanIDE-104A
+CS-328-05807-nanIDE-118A
+CS-328-05807-nanIDE-118B</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
           <t>6.0
-CS-113L-06854-Kim
-CS-110-06814-Bancroft
-IT-304-06008-Hogan
-CS-114L-06857-nan
-CS-217-06800-nan</t>
+CS-113L-06854-KimIDE-113A
+CS-110-06814-BancroftIDE-317
+IT-304-06008-HoganIDE-209
+CS-114L-06857-nanIDE-104A
+CS-217-06800-nanIDE-217A</t>
         </is>
       </c>
     </row>
@@ -642,45 +642,45 @@
       <c r="C5" t="inlineStr">
         <is>
           <t>7
-IT-221-07008-Fireheart
-IT-221-07008-Fireheart
-CS-219-07810-nan
-CS-407-07811-nan</t>
+IT-221-07008-FireheartIDE-206A
+IT-221-07008-FireheartIDE-206B
+CS-219-07810-nanIDE-204A
+CS-407-07811-nanIDE-317</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
           <t>14
-AT-410-14801-Wyman</t>
+AT-410-14801-WymanEAX-012</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>8
-AV-205-08815-LaFauci
-IT-140-08008-Fireheart
-CS-110-08816-Bancroft
-CS-231-08807-nan</t>
+AV-205-08815-LaFauciIDE-209
+IT-140-08008-FireheartIDE-217A
+CS-110-08816-BancroftIDE-317
+CS-231-08807-nannan-nan</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
           <t>7
-IT-221-07008-Fireheart
-IT-221-07008-Fireheart
-CS-219-07810-nan
-CS-407-07811-nan</t>
+IT-221-07008-FireheartIDE-206A
+IT-221-07008-FireheartIDE-206B
+CS-219-07810-nanIDE-204A
+CS-407-07811-nanIDE-317</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
           <t>8.0
-AV-205-08815-LaFauci
-CS-113L-08850-Kim
-IT-140-08008-Fireheart
-CS-110-08816-Bancroft
-CS-113L-08851-nan
-CS-231-08807-nan</t>
+AV-205-08815-LaFauciIDE-209
+CS-113L-08850-KimIDE-104A
+IT-140-08008-FireheartIDE-217A
+CS-110-08816-BancroftIDE-317
+CS-113L-08851-nannan-nan
+CS-231-08807-nannan-nan</t>
         </is>
       </c>
     </row>
@@ -696,17 +696,17 @@
       <c r="C6" t="inlineStr">
         <is>
           <t>9
-AM-220-09801-Wyman
-CSM-305-09814-nan
-CSM-305-09814-nan
-CS-203-09803-Datta</t>
+AM-220-09801-WymanEAX-009
+CSM-305-09814-nanEAX-015
+CSM-305-09814-nanEAX-016
+CS-203-09803-DattaIDE-113A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
           <t>10
-CS-203-10814-Datta
-CS-361-10813-nan</t>
+CS-203-10814-DattaIDE-217A
+CS-361-10813-nanIDE-318</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -717,17 +717,17 @@
       <c r="F6" t="inlineStr">
         <is>
           <t>9
-AM-220-09801-Wyman
-CS-203-09803-Datta</t>
+AM-220-09801-WymanEAX-009
+CS-203-09803-DattaIDE-113A</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
           <t>10.0
-CS-203-10814-Datta
-CS-361-10813-nan
-CS-113L-10852-nan
-CS-113L-10855-nan</t>
+CS-203-10814-DattaIDE-217A
+CS-361-10813-nanIDE-318
+CS-113L-10852-nanIDE-204A
+CS-113L-10855-nannan-nan</t>
         </is>
       </c>
     </row>
@@ -743,9 +743,9 @@
       <c r="C7" t="inlineStr">
         <is>
           <t>11
-IT-313-11003-Veaudry
-CS-231-11811-Datta
-CS-303-11812-Anderson</t>
+IT-313-11003-VeaudryIDE-217A
+CS-231-11811-DattaIDE-317
+CS-303-11812-AndersonIDE-113A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -756,26 +756,26 @@
       <c r="E7" t="inlineStr">
         <is>
           <t>12
-AM-340L-12802-Moon
-IT-200-12003-Pollitt
-CS-110-12809-nan</t>
+AM-340L-12802-MoonIDE-317
+IT-200-12003-PollittIDE-217A
+CS-110-12809-nanIDE-323</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
           <t>11
-CSM-199-11810-nan
-CSM-199-11810-nan
-IT-313-11003-Veaudry
-CS-231-11811-Datta
-CS-303-11812-Anderson</t>
+CSM-199-11810-nanEAX-015
+CSM-199-11810-nanEAX-016
+IT-313-11003-VeaudryIDE-217A
+CS-231-11811-DattaIDE-317
+CS-303-11812-AndersonIDE-113A</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
           <t>12.0
-IT-200-12003-Pollitt
-CS-110-12809-nan</t>
+IT-200-12003-PollittIDE-217A
+CS-110-12809-nanIDE-323</t>
         </is>
       </c>
     </row>
@@ -791,35 +791,35 @@
       <c r="C8" t="inlineStr">
         <is>
           <t>20
-CM-410-20802-Robblee</t>
+CM-410-20802-RobbleeIDE-318</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
           <t>21
-AM-340-21802-Moon
-CSM-300-21804-Michienzi
-CSM-300-21804-Michienzi
-CM-415-21803-Rounds
-CS-231-21809-Saha
-CS-231-21809-Saha</t>
+AM-340-21802-MoonIDE-317
+CSM-300-21804-MichienziEAX-015
+CSM-300-21804-MichienziEAX-016
+CM-415-21803-RoundsIDE-318
+CS-231-21809-SahaIDE-118A
+CS-231-21809-SahaIDE-118B</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>20
-CM-400-20801-Robblee
-CSM-220-20806-Michienzi
-CSM-220-20806-Michienzi</t>
+CM-400-20801-RobbleeIDE-317
+CSM-220-20806-MichienziEAX-015
+CSM-220-20806-MichienziEAX-016</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>21
-AM-340-21802-Moon
-CM-415-21803-Rounds
-CS-231-21809-Saha
-CS-231-21809-Saha</t>
+AM-340-21802-MoonIDE-317
+CM-415-21803-RoundsIDE-318
+CS-231-21809-SahaIDE-118A
+CS-231-21809-SahaIDE-118B</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">

--- a/Schedules/CS_course_schedule.xlsx
+++ b/Schedules/CS_course_schedule.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
   <si>
     <t>TIME</t>
   </si>
@@ -62,15 +62,10 @@
   </si>
   <si>
     <t>3
-AV-410-03809-Balch-EAX-011
-CM-200-03811-Mohamed Ali-IDE-318
 CS-413-03810-Kim-IDE-113A</t>
   </si>
   <si>
     <t>5
-AM-201-05816-Balch-EAX-011
-CM-320-05815-nan-EAX-015
-CM-320-05815-nan-EAX-016
 IT-140-05007-Banae-IDE-128A
 IT-423-05008-Fireheart-IDE-204A
 CS-217-05812-nan-IDE-104A
@@ -86,9 +81,6 @@
   </si>
   <si>
     <t>9
-AM-220-09801-Wyman-EAX-009
-CSM-305-09814-nan-EAX-015
-CSM-305-09814-nan-EAX-016
 CS-203-09803-Datta-IDE-113A</t>
   </si>
   <si>
@@ -98,8 +90,7 @@
 CS-303-11812-Anderson-IDE-113A</t>
   </si>
   <si>
-    <t>20
-CM-410-20802-Robblee-IDE-318</t>
+    <t>20</t>
   </si>
   <si>
     <t>22</t>
@@ -112,8 +103,6 @@
   </si>
   <si>
     <t>4
-AV-306-04805-Breuder-EAX-009
-CM-375-04808-Regnery-EAX-017
 IT-212-04009-Gilmartin-IDE-128A
 CS-312-04815-Bancroft-IDE-317
 CS-219-04814-nan-IDE-118A
@@ -122,17 +111,12 @@
   </si>
   <si>
     <t>13
-AV-300-13804-Wyman-EAX-010
-CSM-225-13810-Trottier-EAX-017
-CSM-199-13805-nan-EAX-015
-CSM-199-13805-nan-EAX-016
 CS-113-13850-Kim-IDE-104A
 CS-113-13851-nan-nan-nan
 CS-113-13852-nan-IDE-204A</t>
   </si>
   <si>
-    <t>14
-AT-410-14801-Wyman-EAX-012</t>
+    <t>14</t>
   </si>
   <si>
     <t>10
@@ -144,10 +128,6 @@
   </si>
   <si>
     <t>21
-AM-340-21802-Moon-IDE-317
-CSM-300-21804-Michienzi-EAX-015
-CSM-300-21804-Michienzi-EAX-016
-CM-415-21803-Rounds-IDE-318
 CS-231-21809-Saha-IDE-118A
 CS-231-21809-Saha-IDE-118B</t>
   </si>
@@ -173,67 +153,23 @@
   </si>
   <si>
     <t>8
-AV-205-08815-LaFauci-IDE-209
 IT-140-08008-Fireheart-IDE-217A
 CS-110-08816-Bancroft-IDE-317
 CS-231-08807-nan-nan-nan</t>
   </si>
   <si>
     <t>12
-AM-340L-12802-Moon-IDE-317
 IT-200-12003-Pollitt-IDE-217A
 CS-110-12809-nan-IDE-323</t>
   </si>
   <si>
-    <t>20
-CM-400-20801-Robblee-IDE-317
-CSM-220-20806-Michienzi-EAX-015
-CSM-220-20806-Michienzi-EAX-016</t>
-  </si>
-  <si>
-    <t>13
-AV-300-13804-Wyman-EAX-010</t>
-  </si>
-  <si>
-    <t>5
-AM-201-05816-Balch-EAX-011
-AT-410L-05804-Adelizzi-EAX-022
-AT-410L-05804-Adelizzi-EAX-023
-CM-320-05815-nan-EAX-015
-CM-320-05815-nan-EAX-016
-IT-140-05007-Banae-IDE-128A
-IT-423-05008-Fireheart-IDE-204A
-CS-217-05812-nan-IDE-104A
-CS-328-05807-nan-IDE-118A
-CS-328-05807-nan-IDE-118B</t>
-  </si>
-  <si>
-    <t>9
-AM-220-09801-Wyman-EAX-009
-CS-203-09803-Datta-IDE-113A</t>
-  </si>
-  <si>
-    <t>11
-CSM-199-11810-nan-EAX-015
-CSM-199-11810-nan-EAX-016
-IT-313-11003-Veaudry-IDE-217A
-CS-231-11811-Datta-IDE-317
-CS-303-11812-Anderson-IDE-113A</t>
-  </si>
-  <si>
-    <t>21
-AM-340-21802-Moon-IDE-317
-CM-415-21803-Rounds-IDE-318
-CS-231-21809-Saha-IDE-118A
-CS-231-21809-Saha-IDE-118B</t>
+    <t>13</t>
   </si>
   <si>
     <t>2.0</t>
   </si>
   <si>
     <t>4.0
-AV-306-04805-Breuder-EAX-009
-CM-375-04808-Regnery-EAX-017
 IT-212-04009-Gilmartin-IDE-128A
 CS-312-04815-Bancroft-IDE-317
 CS-219-04814-nan-IDE-118A
@@ -250,7 +186,6 @@
   </si>
   <si>
     <t>8.0
-AV-205-08815-LaFauci-IDE-209
 CS-113L-08850-Kim-IDE-104A
 IT-140-08008-Fireheart-IDE-217A
 CS-110-08816-Bancroft-IDE-317
@@ -668,10 +603,10 @@
         <v>32</v>
       </c>
       <c r="E2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" t="s">
         <v>37</v>
-      </c>
-      <c r="F2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -691,7 +626,7 @@
         <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -708,10 +643,10 @@
         <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -731,7 +666,7 @@
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -748,10 +683,10 @@
         <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -768,10 +703,10 @@
         <v>35</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -785,13 +720,13 @@
         <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -811,7 +746,7 @@
         <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -831,7 +766,7 @@
         <v>31</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Schedules/CS_course_schedule.xlsx
+++ b/Schedules/CS_course_schedule.xlsx
@@ -110,15 +110,15 @@
 CS-217-04809-nan-nan-nan</t>
   </si>
   <si>
-    <t>13
+    <t>13</t>
+  </si>
+  <si>
+    <t>14
 CS-113-13850-Kim-IDE-104A
 CS-113-13851-nan-nan-nan
 CS-113-13852-nan-IDE-204A</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
     <t>10
 CS-203-10814-Datta-IDE-217A
 CS-361-10813-nan-IDE-318</t>
@@ -138,23 +138,24 @@
     <t>25</t>
   </si>
   <si>
-    <t>1
+    <t>3
+CS-413-03810-Kim-IDE-113A
 CS-219-01805-MacKay-IDE-107A
 CS-219-01805-MacKay-IDE-107B</t>
   </si>
   <si>
     <t>6
-CS-113-06853-Kim-IDE-113A
 CS-110-06814-Bancroft-IDE-317
 IT-304-06008-Hogan-IDE-209
-CS-114-06856-nan-IDE-104A
-CS-217-06800-nan-IDE-217A
-CS-113-06855-nan-nan-nan</t>
+CS-217-06800-nan-IDE-217A</t>
   </si>
   <si>
     <t>8
+CS-113-06853-Kim-IDE-113A
 IT-140-08008-Fireheart-IDE-217A
 CS-110-08816-Bancroft-IDE-317
+CS-114-06856-nan-IDE-104A
+CS-113-06855-nan-nan-nan
 CS-231-08807-nan-nan-nan</t>
   </si>
   <si>
@@ -163,7 +164,7 @@
 CS-110-12809-nan-IDE-323</t>
   </si>
   <si>
-    <t>13</t>
+    <t>14</t>
   </si>
   <si>
     <t>2.0</t>
@@ -600,10 +601,10 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
         <v>37</v>
@@ -620,10 +621,10 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F3" t="s">
         <v>38</v>

--- a/Schedules/CS_course_schedule.xlsx
+++ b/Schedules/CS_course_schedule.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
   <si>
     <t>TIME</t>
   </si>
@@ -110,7 +110,10 @@
 CS-217-04809-nan-nan-nan</t>
   </si>
   <si>
-    <t>13</t>
+    <t>13
+CS-113-13850-Kim-IDE-104A
+CS-113-13851-nan-nan-nan
+CS-113-13852-nan-IDE-204A</t>
   </si>
   <si>
     <t>14
@@ -138,6 +141,11 @@
     <t>25</t>
   </si>
   <si>
+    <t>1
+CS-219-01805-MacKay-IDE-107A
+CS-219-01805-MacKay-IDE-107B</t>
+  </si>
+  <si>
     <t>3
 CS-413-03810-Kim-IDE-113A
 CS-219-01805-MacKay-IDE-107A
@@ -145,9 +153,12 @@
   </si>
   <si>
     <t>6
+CS-113-06853-Kim-IDE-113A
 CS-110-06814-Bancroft-IDE-317
 IT-304-06008-Hogan-IDE-209
-CS-217-06800-nan-IDE-217A</t>
+CS-114-06856-nan-IDE-104A
+CS-217-06800-nan-IDE-217A
+CS-113-06855-nan-nan-nan</t>
   </si>
   <si>
     <t>8
@@ -162,6 +173,9 @@
     <t>12
 IT-200-12003-Pollitt-IDE-217A
 CS-110-12809-nan-IDE-323</t>
+  </si>
+  <si>
+    <t>13</t>
   </si>
   <si>
     <t>14</t>
@@ -601,13 +615,13 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -621,13 +635,13 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -641,13 +655,13 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -661,13 +675,13 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s">
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -687,7 +701,7 @@
         <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -701,13 +715,13 @@
         <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
         <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -727,7 +741,7 @@
         <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -747,7 +761,7 @@
         <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -767,7 +781,7 @@
         <v>31</v>
       </c>
       <c r="F10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Schedules/CS_course_schedule.xlsx
+++ b/Schedules/CS_course_schedule.xlsx
@@ -118,8 +118,8 @@
   <si>
     <t>14
 CS-113-13850-Kim-IDE-104A
-CS-113-13851-nan-nan-nan
-CS-113-13852-nan-IDE-204A</t>
+CS-113-13851-TBD-TBD-TBD
+CS-113-13852-TBD-IDE-204A</t>
   </si>
   <si>
     <t>10
@@ -165,8 +165,8 @@
 CS-113-06853-Kim-IDE-113A
 IT-140-08008-Fireheart-IDE-217A
 CS-110-08816-Bancroft-IDE-317
-CS-114-06856-nan-IDE-104A
-CS-113-06855-nan-nan-nan
+CS-114-06856-TBD-IDE-104A
+CS-113-06855-TBD-TBD-TBD
 CS-231-08807-nan-nan-nan</t>
   </si>
   <si>

--- a/Schedules/CS_course_schedule.xlsx
+++ b/Schedules/CS_course_schedule.xlsx
@@ -66,18 +66,14 @@
   </si>
   <si>
     <t>5
-IT-140-05007-Banae-IDE-128A
-IT-423-05008-Fireheart-IDE-204A
-CS-217-05812-nan-IDE-104A
-CS-328-05807-nan-IDE-118A
-CS-328-05807-nan-IDE-118B</t>
+CS-217-05812-TBD-IDE-104A
+CS-328-05807-TBD-IDE-118A
+CS-328-05807-TBD-IDE-118B</t>
   </si>
   <si>
     <t>7
-IT-221-07008-Fireheart-IDE-206A
-IT-221-07008-Fireheart-IDE-206B
-CS-219-07810-nan-IDE-204A
-CS-407-07811-nan-IDE-317</t>
+CS-219-07810-TBD-IDE-204A
+CS-407-07811-TBD-IDE-317</t>
   </si>
   <si>
     <t>9
@@ -85,7 +81,6 @@
   </si>
   <si>
     <t>11
-IT-313-11003-Veaudry-IDE-217A
 CS-231-11811-Datta-IDE-317
 CS-303-11812-Anderson-IDE-113A</t>
   </si>
@@ -103,17 +98,16 @@
   </si>
   <si>
     <t>4
-IT-212-04009-Gilmartin-IDE-128A
 CS-312-04815-Bancroft-IDE-317
-CS-219-04814-nan-IDE-118A
-CS-219-04814-nan-IDE-118B
-CS-217-04809-nan-nan-nan</t>
+CS-219-04814-TBD-IDE-118A
+CS-219-04814-TBD-IDE-118B
+CS-217-04809-TBD-TBD-TBD</t>
   </si>
   <si>
     <t>13
 CS-113-13850-Kim-IDE-104A
-CS-113-13851-nan-nan-nan
-CS-113-13852-nan-IDE-204A</t>
+CS-113-13851-TBD-TBD-TBD
+CS-113-13852-TBD-IDE-204A</t>
   </si>
   <si>
     <t>14
@@ -124,7 +118,7 @@
   <si>
     <t>10
 CS-203-10814-Datta-IDE-217A
-CS-361-10813-nan-IDE-318</t>
+CS-361-10813-TBD-IDE-318</t>
   </si>
   <si>
     <t>FREE PERIOD</t>
@@ -155,24 +149,21 @@
     <t>6
 CS-113-06853-Kim-IDE-113A
 CS-110-06814-Bancroft-IDE-317
-IT-304-06008-Hogan-IDE-209
-CS-114-06856-nan-IDE-104A
-CS-217-06800-nan-IDE-217A
-CS-113-06855-nan-nan-nan</t>
+CS-114-06856-TBD-IDE-104A
+CS-217-06800-TBD-IDE-217A
+CS-113-06855-TBD-TBD-TBD</t>
   </si>
   <si>
     <t>8
 CS-113-06853-Kim-IDE-113A
-IT-140-08008-Fireheart-IDE-217A
 CS-110-08816-Bancroft-IDE-317
 CS-114-06856-TBD-IDE-104A
 CS-113-06855-TBD-TBD-TBD
-CS-231-08807-nan-nan-nan</t>
+CS-231-08807-TBD-TBD-TBD</t>
   </si>
   <si>
     <t>12
-IT-200-12003-Pollitt-IDE-217A
-CS-110-12809-nan-IDE-323</t>
+CS-110-12809-TBD-IDE-323</t>
   </si>
   <si>
     <t>13</t>
@@ -185,39 +176,35 @@
   </si>
   <si>
     <t>4.0
-IT-212-04009-Gilmartin-IDE-128A
 CS-312-04815-Bancroft-IDE-317
-CS-219-04814-nan-IDE-118A
-CS-219-04814-nan-IDE-118B
-CS-217-04809-nan-nan-nan</t>
+CS-219-04814-TBD-IDE-118A
+CS-219-04814-TBD-IDE-118B
+CS-217-04809-TBD-TBD-TBD</t>
   </si>
   <si>
     <t>6.0
 CS-113L-06854-Kim-IDE-113A
 CS-110-06814-Bancroft-IDE-317
-IT-304-06008-Hogan-IDE-209
-CS-114L-06857-nan-IDE-104A
-CS-217-06800-nan-IDE-217A</t>
+CS-114L-06857-TBD-IDE-104A
+CS-217-06800-TBD-IDE-217A</t>
   </si>
   <si>
     <t>8.0
 CS-113L-08850-Kim-IDE-104A
-IT-140-08008-Fireheart-IDE-217A
 CS-110-08816-Bancroft-IDE-317
-CS-113L-08851-nan-nan-nan
-CS-231-08807-nan-nan-nan</t>
+CS-113L-08851-TBD-TBD-TBD
+CS-231-08807-TBD-TBD-TBD</t>
   </si>
   <si>
     <t>10.0
 CS-203-10814-Datta-IDE-217A
-CS-361-10813-nan-IDE-318
-CS-113L-10852-nan-IDE-204A
-CS-113L-10855-nan-nan-nan</t>
+CS-361-10813-TBD-IDE-318
+CS-113L-10852-TBD-IDE-204A
+CS-113L-10855-TBD-TBD-TBD</t>
   </si>
   <si>
     <t>12.0
-IT-200-12003-Pollitt-IDE-217A
-CS-110-12809-nan-IDE-323</t>
+CS-110-12809-TBD-IDE-323</t>
   </si>
   <si>
     <t>nan</t>

--- a/Schedules/CS_course_schedule.xlsx
+++ b/Schedules/CS_course_schedule.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
   <si>
     <t>TIME</t>
   </si>
@@ -172,42 +172,25 @@
     <t>14</t>
   </si>
   <si>
-    <t>2.0</t>
-  </si>
-  <si>
-    <t>4.0
-CS-312-04815-Bancroft-IDE-317
-CS-219-04814-TBD-IDE-118A
-CS-219-04814-TBD-IDE-118B
-CS-217-04809-TBD-TBD-TBD</t>
-  </si>
-  <si>
-    <t>6.0
+    <t>6
 CS-113L-06854-Kim-IDE-113A
 CS-110-06814-Bancroft-IDE-317
 CS-114L-06857-TBD-IDE-104A
 CS-217-06800-TBD-IDE-217A</t>
   </si>
   <si>
-    <t>8.0
+    <t>8
 CS-113L-08850-Kim-IDE-104A
 CS-110-08816-Bancroft-IDE-317
 CS-113L-08851-TBD-TBD-TBD
 CS-231-08807-TBD-TBD-TBD</t>
   </si>
   <si>
-    <t>10.0
+    <t>10
 CS-203-10814-Datta-IDE-217A
 CS-361-10813-TBD-IDE-318
 CS-113L-10852-TBD-IDE-204A
 CS-113L-10855-TBD-TBD-TBD</t>
-  </si>
-  <si>
-    <t>12.0
-CS-110-12809-TBD-IDE-323</t>
-  </si>
-  <si>
-    <t>nan</t>
   </si>
 </sst>
 </file>
@@ -608,7 +591,7 @@
         <v>37</v>
       </c>
       <c r="F2" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -628,7 +611,7 @@
         <v>38</v>
       </c>
       <c r="F3" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -648,7 +631,7 @@
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -668,7 +651,7 @@
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -688,7 +671,7 @@
         <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -708,7 +691,7 @@
         <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -727,9 +710,6 @@
       <c r="E8" t="s">
         <v>29</v>
       </c>
-      <c r="F8" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
@@ -747,9 +727,6 @@
       <c r="E9" t="s">
         <v>30</v>
       </c>
-      <c r="F9" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
@@ -766,9 +743,6 @@
       </c>
       <c r="E10" t="s">
         <v>31</v>
-      </c>
-      <c r="F10" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
